--- a/src/data/PortugueseMapData.xlsx
+++ b/src/data/PortugueseMapData.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>more data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -42,16 +36,275 @@
     <t>url</t>
   </si>
   <si>
+    <t>marker1_coords</t>
+  </si>
+  <si>
+    <t>marker2_coords</t>
+  </si>
+  <si>
+    <t>markerType</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>marker</t>
   </si>
   <si>
-    <t>T-0</t>
-  </si>
-  <si>
-    <t>D-0</t>
-  </si>
-  <si>
-    <t>C-0</t>
+    <t>Aline Motta</t>
+  </si>
+  <si>
+    <t>Aline Motta nasceu em Niterói, RJ</t>
+  </si>
+  <si>
+    <t>[-43.119678, -22.893564]</t>
+  </si>
+  <si>
+    <t>https://player.vimeo.com/video/486936176</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>"Pontes Sobre Abismos" (2017) de Aline Motta'</t>
+  </si>
+  <si>
+    <t>'Aline Motta viajou para o Rio de Janeiro para produzir o filme “Pontes Sobre Abismos”</t>
+  </si>
+  <si>
+    <t>[-43.21043, -22.90947]</t>
+  </si>
+  <si>
+    <t>Aline Motta viajou para Minas Gerais para produzir o filme “Pontes Sobre Abismos”</t>
+  </si>
+  <si>
+    <t>[-44.287671, -18.26705]</t>
+  </si>
+  <si>
+    <t>Aline Motta viajou para Portugal para produzir o filme “Pontes Sobre Abismos”</t>
+  </si>
+  <si>
+    <t>[-8.562731, 39.600995]</t>
+  </si>
+  <si>
+    <t>Aline Motta viajou para Serra Leoa para produzir o filme “Pontes Sobre Abismos”</t>
+  </si>
+  <si>
+    <t>[-11.791922, 8.560284]</t>
+  </si>
+  <si>
+    <t>A lenda da Onça pintada</t>
+  </si>
+  <si>
+    <t>As origens da lenda do leopardo e do fogo são dos povos indígenas brasileiros. O Cristino Wapichana é a pessoa que é mais associada com esse conto, e ele é do estado de Roraima.</t>
+  </si>
+  <si>
+    <t>[-61.40579, 2.065531]</t>
+  </si>
+  <si>
+    <t>0_1</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>Aline Motta viajou para o Rio de Janeiro para produzir o filme “Pontes Sobre Abismos”</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>"Diários de uma busca" (2010), de Flávia Castro</t>
+  </si>
+  <si>
+    <t>A cidade onde nasceu Flávia Castro</t>
+  </si>
+  <si>
+    <t>[-51.22706, -30.02569]</t>
+  </si>
+  <si>
+    <t>"Que bom te ver viva" (1989) de Lúcia Murat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cidade onde nasceu Lúcia Murat	</t>
+  </si>
+  <si>
+    <t>[-43.18798, -22.96921]</t>
+  </si>
+  <si>
+    <t>"FotogrÁFRICA" (2016), de Tila Chitunda</t>
+  </si>
+  <si>
+    <t>A cidade onde nasceu Tila Chitunda, filha de pais angolanos</t>
+  </si>
+  <si>
+    <t>[-34.83907, -7.99931]</t>
+  </si>
+  <si>
+    <t>A cidade onde o filme é premiado como melhor filme na III Mostra Internacional de Cinema na Cova da Moura,  2018</t>
+  </si>
+  <si>
+    <t>[-9.16682, 38.70759]</t>
+  </si>
+  <si>
+    <t>A missão protestante onde morava a família Chitunda antes da Guerra de Independência de Angola</t>
+  </si>
+  <si>
+    <t>[-12.174507, 17.310778]</t>
+  </si>
+  <si>
+    <t>A cidade onde nasceu Tata Amaral</t>
+  </si>
+  <si>
+    <t>[-46.59692, -23.56322]</t>
+  </si>
+  <si>
+    <t>36º Festival del Nuevo Cinema Latino-Americano de Havana, Cuba (2014)</t>
+  </si>
+  <si>
+    <t>A cidade onde o filme de Tata Amaral estreou</t>
+  </si>
+  <si>
+    <t>[-82.35958, 23.13689]</t>
+  </si>
+  <si>
+    <t>"Diário de uma Busca" (2010), de Flávia Castro</t>
+  </si>
+  <si>
+    <t>A cidade onde Flávia Castro se exila de criança com sua família durante o regime militar</t>
+  </si>
+  <si>
+    <t>[2.34365, 48.85059]</t>
+  </si>
+  <si>
+    <t>"Lusófonas" (2019), Carolina Paiva</t>
+  </si>
+  <si>
+    <t>Uma das cidades retratadas por Carolina Paiva no seu documentário</t>
+  </si>
+  <si>
+    <t>[-9.13719, 38.70716]</t>
+  </si>
+  <si>
+    <t>7_8</t>
+  </si>
+  <si>
+    <t>Memória e resistência das mulheres na luta contra a ditadura no Brasil</t>
+  </si>
+  <si>
+    <t>Esses filmes estão unidos pela busca por justiça, em uma reflexão sobre o impacto da ditadura militar na memória pessoal e coletiva. Ambos exploram as experiências de militância, prisão e ativismo, com ênfase especial nas mulheres. Que Bom Te Ver Viva, de Lúcia Murat, destaca mulheres que resistiram e suportaram torturas, enquanto Diário de Uma Busca, de Flávia Castro, retrata a resiliência de mulheres lidando com a perda e perguntas sem resposta depois perderem a família para a resistência.</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>Alina Motta usa a lenda da onça pintada como alegoria da sua própria história no filme Pontes Sobre Abismos (2017).</t>
+  </si>
+  <si>
+    <t>10_11</t>
+  </si>
+  <si>
+    <t>Retratos da diáspora</t>
+  </si>
+  <si>
+    <t>Durante a III Mostra Internacional de Cinema na Cova, em 2018, o documentário FotogrÁFRICA foi exibido em um contexto que destaca produções relacionadas à diáspora africana, reforçando sua relevância para comunidades negras no cenário global.</t>
+  </si>
+  <si>
+    <t>13_14</t>
+  </si>
+  <si>
+    <t>Representação da ditadura militar no cinema e estreia em Cuba</t>
+  </si>
+  <si>
+    <t>O filme teve sua estreia mundial na Seleção Oficial deste festival, que é um dos mais importantes para o cinema latino-americano. A exibição em Havana marcou o início de uma jornada internacional para a obra, colocando o Brasil em destaque no cenário cinematográfico global.</t>
+  </si>
+  <si>
+    <t>16_17</t>
+  </si>
+  <si>
+    <t>Perspectivas das mulheres sobre o  mundo lusófono</t>
+  </si>
+  <si>
+    <t>Esses dois filmes conectam as experiências das brasileiras com o mundo exterior. O documentário de Flávia Castro, com os lugares de exílio (ela se exila de criança com sua família durante a ditadura militar), e o de Carolina Paiva, com as ligações de diferentes história de mulheres no mundo lusófono (realidades semelhantes independete de países). As duas diretoras exploram o legado das estruturas políticas e sociais do Brasil e de Portugal, revelando as dificuldades de resistência em contextos e lugares variados, resultado do legado da violência de classe, de gênero e de raça. Há uma violência colonial que se repete na modernidade tornando difícil o empoderamento feminino ou a busca por justiça e memória. A realidade do exílio ou as leis restritas sobre o corpo feminino têm um núcleo comum que é a repressão para silenciar o povo. Fica claro, em filmes diferentes, como as ideias coloniais e repressivas continuam impactando as brasileiras e as mulheres lusófonas em geral.</t>
+  </si>
+  <si>
+    <t>23_24</t>
+  </si>
+  <si>
+    <t>Memória e pertencimento</t>
+  </si>
+  <si>
+    <t>Um tema comum de Pontes sobre abismos, de Aline Motta, e Que bom te ver viva, de Lúcia Murat, é a busca por pertencimento e identidade, enfatizando a urgência (e constância) do trabalho de memória. Em Pontes Sobre Abismos, essa luta surge na releitura da diáspora, enquanto que em Que Bom Te Ver Viva revisita-se o período da ditadura militar e da anistia que se seguiu. Ambos os filmes abordam a complexa questão do que deve ser lembrado e do que não pode ser esquecido para lidar com os traumas coletivos.</t>
+  </si>
+  <si>
+    <t>[55.835085, 37.637302]</t>
+  </si>
+  <si>
+    <t>[-43.19042, -22.97177]</t>
+  </si>
+  <si>
+    <t>26_27</t>
+  </si>
+  <si>
+    <t>Uma pioneira no cinema africano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com Sambizanga (1972), Sarah Maladoror foi a primeira mulher a dirigir um longa-metragem na África. Além disso, ela foi a primeira mulher a criar um filme em Angola e na África lusófona. O filme é baseado no livro A vida verdadeira de Domingos Xavier, de José Luandino Vieira. </t>
+  </si>
+  <si>
+    <t>[0.37171, 43.95779]</t>
+  </si>
+  <si>
+    <t>[13.28896, -8.78678]</t>
+  </si>
+  <si>
+    <t>29_30</t>
+  </si>
+  <si>
+    <t>diáspora no cenário internacional</t>
+  </si>
+  <si>
+    <t>Ana Pi é dançarina e cineasta. Atualmente mora na França. Visitou oito países e nove cidades no continente africano enquanto criava o filme NoirBLUE. O filme, estreado na França, apresenta uma história de reconexão com suas raízes africanas através da dança. O filme ganhou prêmios no Brasil e na Alemanha</t>
+  </si>
+  <si>
+    <t>[-4.263360, 15.242885[</t>
+  </si>
+  <si>
+    <t>[16.89703, -24.990490]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pontes sobre Abismos" (2017), de Aline Motta
+</t>
+  </si>
+  <si>
+    <t>A cidade onde nasceu Aline Motta</t>
+  </si>
+  <si>
+    <t>[-43.12007, -22.89437]</t>
+  </si>
+  <si>
+    <t>A cidade onde nasceu Lúcia Murat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sambizanga" (1972) de Sarah Maldoror </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cidade onde nasceu Sarah Maldoror </t>
+  </si>
+  <si>
+    <t>O filme "Sambizanga" passa em Angola em 1961, antes da Guerra de Independência de Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cidade onde a Sarah Maldoror estudou  no  Gerasimov Institute of Cinematography. Ela teve aulas com o famoso diretor famoso Mark Donskoy. </t>
+  </si>
+  <si>
+    <t>Por causa da Guerra de Independência de Angola, o filme "Sambizanga" (1972) foi filmado no Congo</t>
+  </si>
+  <si>
+    <t>[-4.263360, 15.242885]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ilha onde nasceu a atriz principal de "Sambizanga" (1972), Elisa Andrade. Ela foi economista, historiadora, investigadora e também uma mulher de teatro e cinema. </t>
   </si>
 </sst>
 </file>
@@ -59,7 +312,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +323,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -101,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -109,10 +368,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -420,57 +688,762 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="4">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="6">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -482,134 +1455,275 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -622,12 +1736,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>